--- a/medicine/Mort/Cimetière_soviétique_de_Dresde/Cimetière_soviétique_de_Dresde.xlsx
+++ b/medicine/Mort/Cimetière_soviétique_de_Dresde/Cimetière_soviétique_de_Dresde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_sovi%C3%A9tique_de_Dresde</t>
+          <t>Cimetière_soviétique_de_Dresde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière soviétique de Dresde (en allemand : Sowjetischer Garnisonfriedhof) est un cimetière militaire qui abrite les tombes des soldats de l'Armée rouge tombés à Dresde et en Saxe pendant la Seconde Guerre mondiale, puis plus tard des familles des militaires et fonctionnaires soviétiques décédés en république démocratique allemande. Il se trouve à Albertstadt.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_sovi%C3%A9tique_de_Dresde</t>
+          <t>Cimetière_soviétique_de_Dresde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est tout de suite après la guerre que l'armée soviétique décide de l'aménagement d'un cimetière pour ses soldats tombés contre le régime du Troisième Reich dans les environs de Dresde, dont un grand nombre sont également morts de leurs blessures dans les hôpitaux militaires des environs, ainsi que d'anciens travailleurs forcés soviétiques.
 Lorsque Dresde accueille par la suite à Albertstadt (son quartier de garnison) une garnison soviétique, ses soldats et fonctionnaires, ainsi que leurs familles y sont enterrés. Le cimetière est donc agrandi au nord en 1952.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_sovi%C3%A9tique_de_Dresde</t>
+          <t>Cimetière_soviétique_de_Dresde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Tombe d'un soldat dans la section nord
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_sovi%C3%A9tique_de_Dresde</t>
+          <t>Cimetière_soviétique_de_Dresde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Sowjetischer Garnisonfriedhof Dresden » (voir la liste des auteurs).</t>
         </is>
